--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lgi3</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.475926292362642</v>
+        <v>0.6167776666666667</v>
       </c>
       <c r="H2">
-        <v>0.475926292362642</v>
+        <v>1.850333</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7836323164322263</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7836323164322262</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.2291746569943</v>
+        <v>16.28388233333333</v>
       </c>
       <c r="N2">
-        <v>16.2291746569943</v>
+        <v>48.851647</v>
       </c>
       <c r="O2">
-        <v>0.3619257351504331</v>
+        <v>0.3486636287871168</v>
       </c>
       <c r="P2">
-        <v>0.3619257351504331</v>
+        <v>0.3486636287871168</v>
       </c>
       <c r="Q2">
-        <v>7.72389092260905</v>
+        <v>10.04353494982789</v>
       </c>
       <c r="R2">
-        <v>7.72389092260905</v>
+        <v>90.39181454845099</v>
       </c>
       <c r="S2">
-        <v>0.3619257351504331</v>
+        <v>0.2732240870821142</v>
       </c>
       <c r="T2">
-        <v>0.3619257351504331</v>
+        <v>0.2732240870821142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.475926292362642</v>
+        <v>0.6167776666666667</v>
       </c>
       <c r="H3">
-        <v>0.475926292362642</v>
+        <v>1.850333</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7836323164322263</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7836323164322262</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.7230355042342</v>
+        <v>14.832885</v>
       </c>
       <c r="N3">
-        <v>14.7230355042342</v>
+        <v>44.498655</v>
       </c>
       <c r="O3">
-        <v>0.328337426957162</v>
+        <v>0.3175954851316676</v>
       </c>
       <c r="P3">
-        <v>0.328337426957162</v>
+        <v>0.3175954851316677</v>
       </c>
       <c r="Q3">
-        <v>7.007079699853724</v>
+        <v>9.148592200234999</v>
       </c>
       <c r="R3">
-        <v>7.007079699853724</v>
+        <v>82.33732980211499</v>
       </c>
       <c r="S3">
-        <v>0.328337426957162</v>
+        <v>0.2488780857021454</v>
       </c>
       <c r="T3">
-        <v>0.328337426957162</v>
+        <v>0.2488780857021454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.475926292362642</v>
+        <v>0.6167776666666667</v>
       </c>
       <c r="H4">
-        <v>0.475926292362642</v>
+        <v>1.850333</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7836323164322263</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7836323164322262</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.77920685066816</v>
+        <v>10.02049633333333</v>
       </c>
       <c r="N4">
-        <v>8.77920685066816</v>
+        <v>30.061489</v>
       </c>
       <c r="O4">
-        <v>0.1957845029473768</v>
+        <v>0.214554646263697</v>
       </c>
       <c r="P4">
-        <v>0.1957845029473768</v>
+        <v>0.214554646263697</v>
       </c>
       <c r="Q4">
-        <v>4.178255366323205</v>
+        <v>6.180418347315222</v>
       </c>
       <c r="R4">
-        <v>4.178255366323205</v>
+        <v>55.623765125837</v>
       </c>
       <c r="S4">
-        <v>0.1957845029473768</v>
+        <v>0.1681319544529178</v>
       </c>
       <c r="T4">
-        <v>0.1957845029473768</v>
+        <v>0.1681319544529178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.6167776666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.850333</v>
+      </c>
+      <c r="I5">
+        <v>0.7836323164322263</v>
+      </c>
+      <c r="J5">
+        <v>0.7836323164322262</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5.566438666666667</v>
+      </c>
+      <c r="N5">
+        <v>16.699316</v>
+      </c>
+      <c r="O5">
+        <v>0.1191862398175185</v>
+      </c>
+      <c r="P5">
+        <v>0.1191862398175185</v>
+      </c>
+      <c r="Q5">
+        <v>3.433255052469778</v>
+      </c>
+      <c r="R5">
+        <v>30.899295472228</v>
+      </c>
+      <c r="S5">
+        <v>0.09339818919504887</v>
+      </c>
+      <c r="T5">
+        <v>0.09339818919504887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1702976666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.510893</v>
+      </c>
+      <c r="I6">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="J6">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>16.28388233333333</v>
+      </c>
+      <c r="N6">
+        <v>48.851647</v>
+      </c>
+      <c r="O6">
+        <v>0.3486636287871168</v>
+      </c>
+      <c r="P6">
+        <v>0.3486636287871168</v>
+      </c>
+      <c r="Q6">
+        <v>2.773107165641223</v>
+      </c>
+      <c r="R6">
+        <v>24.957964490771</v>
+      </c>
+      <c r="S6">
+        <v>0.0754395417050026</v>
+      </c>
+      <c r="T6">
+        <v>0.0754395417050026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1702976666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.510893</v>
+      </c>
+      <c r="I7">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="J7">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.832885</v>
+      </c>
+      <c r="N7">
+        <v>44.498655</v>
+      </c>
+      <c r="O7">
+        <v>0.3175954851316676</v>
+      </c>
+      <c r="P7">
+        <v>0.3175954851316677</v>
+      </c>
+      <c r="Q7">
+        <v>2.526005705435</v>
+      </c>
+      <c r="R7">
+        <v>22.734051348915</v>
+      </c>
+      <c r="S7">
+        <v>0.06871739942952224</v>
+      </c>
+      <c r="T7">
+        <v>0.06871739942952225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.475926292362642</v>
-      </c>
-      <c r="H5">
-        <v>0.475926292362642</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>5.10975641349875</v>
-      </c>
-      <c r="N5">
-        <v>5.10975641349875</v>
-      </c>
-      <c r="O5">
-        <v>0.1139523349450281</v>
-      </c>
-      <c r="P5">
-        <v>0.1139523349450281</v>
-      </c>
-      <c r="Q5">
-        <v>2.431867424752691</v>
-      </c>
-      <c r="R5">
-        <v>2.431867424752691</v>
-      </c>
-      <c r="S5">
-        <v>0.1139523349450281</v>
-      </c>
-      <c r="T5">
-        <v>0.1139523349450281</v>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1702976666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.510893</v>
+      </c>
+      <c r="I8">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="J8">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.02049633333333</v>
+      </c>
+      <c r="N8">
+        <v>30.061489</v>
+      </c>
+      <c r="O8">
+        <v>0.214554646263697</v>
+      </c>
+      <c r="P8">
+        <v>0.214554646263697</v>
+      </c>
+      <c r="Q8">
+        <v>1.706467144408556</v>
+      </c>
+      <c r="R8">
+        <v>15.358204299677</v>
+      </c>
+      <c r="S8">
+        <v>0.0464226918107792</v>
+      </c>
+      <c r="T8">
+        <v>0.04642269181077921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1702976666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.510893</v>
+      </c>
+      <c r="I9">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="J9">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.566438666666667</v>
+      </c>
+      <c r="N9">
+        <v>16.699316</v>
+      </c>
+      <c r="O9">
+        <v>0.1191862398175185</v>
+      </c>
+      <c r="P9">
+        <v>0.1191862398175185</v>
+      </c>
+      <c r="Q9">
+        <v>0.9479515165764445</v>
+      </c>
+      <c r="R9">
+        <v>8.531563649188001</v>
+      </c>
+      <c r="S9">
+        <v>0.02578805062246963</v>
+      </c>
+      <c r="T9">
+        <v>0.02578805062246964</v>
       </c>
     </row>
   </sheetData>
